--- a/src/data/dataFile/xlsx/test.xlsx
+++ b/src/data/dataFile/xlsx/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>English</t>
   </si>
@@ -32,70 +32,79 @@
     <t>cụm</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>residential area</t>
+  </si>
+  <si>
+    <t>khu dân cư</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>hamlet</t>
+  </si>
+  <si>
+    <t>thôn, ấp, xóm</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>commune</t>
+  </si>
+  <si>
+    <t>xã</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>phường</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>tòa nhà</t>
+  </si>
+  <si>
+    <t>urban zone</t>
+  </si>
+  <si>
+    <t>khu vực đô thị</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>tỉnh</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>góc ngã tư</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>phố</t>
+  </si>
+  <si>
+    <t>grandfather</t>
+  </si>
+  <si>
+    <t>ông (nội, ngoại)</t>
+  </si>
+  <si>
     <t>nothing</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>residential area</t>
-  </si>
-  <si>
-    <t>khu dân cư</t>
-  </si>
-  <si>
-    <t>hamlet</t>
-  </si>
-  <si>
-    <t>thôn, ấp, xóm</t>
-  </si>
-  <si>
-    <t>commune</t>
-  </si>
-  <si>
-    <t>xã</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>phường</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>tòa nhà</t>
-  </si>
-  <si>
-    <t>urban zone</t>
-  </si>
-  <si>
-    <t>khu vực đô thị</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>tỉnh</t>
-  </si>
-  <si>
-    <t>corner</t>
-  </si>
-  <si>
-    <t>góc ngã tư</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>phố</t>
-  </si>
-  <si>
-    <t>grandfather</t>
-  </si>
-  <si>
-    <t>ông (nội, ngoại)</t>
   </si>
   <si>
     <t>avenue</t>
@@ -278,7 +287,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -286,13 +295,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -300,13 +309,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -314,10 +323,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -328,10 +337,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -342,10 +351,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -356,10 +365,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -370,10 +379,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -384,10 +393,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -398,13 +407,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -412,13 +421,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -426,13 +435,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -440,13 +449,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -454,13 +463,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -468,13 +477,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -482,13 +491,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -496,13 +505,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -510,13 +519,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -524,13 +533,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -538,13 +547,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -552,13 +561,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -566,13 +575,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -580,13 +589,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -594,13 +603,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -608,13 +617,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -622,13 +631,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>

--- a/src/data/dataFile/xlsx/test.xlsx
+++ b/src/data/dataFile/xlsx/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>English</t>
   </si>
@@ -32,34 +32,31 @@
     <t>cụm</t>
   </si>
   <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>residential area</t>
+  </si>
+  <si>
+    <t>khu dân cư</t>
+  </si>
+  <si>
+    <t>hamlet</t>
+  </si>
+  <si>
+    <t>thôn, ấp, xóm</t>
+  </si>
+  <si>
+    <t>commune</t>
+  </si>
+  <si>
+    <t>xã</t>
+  </si>
+  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>residential area</t>
-  </si>
-  <si>
-    <t>khu dân cư</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>hamlet</t>
-  </si>
-  <si>
-    <t>thôn, ấp, xóm</t>
-  </si>
-  <si>
-    <t>moderate</t>
-  </si>
-  <si>
-    <t>commune</t>
-  </si>
-  <si>
-    <t>xã</t>
   </si>
   <si>
     <t>ward</t>
@@ -287,7 +284,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -295,13 +292,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -309,13 +306,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -323,13 +320,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -337,13 +334,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -351,13 +348,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -365,13 +362,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -379,13 +376,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -393,13 +390,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -407,13 +404,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -421,13 +418,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -435,13 +432,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -449,13 +446,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -463,13 +460,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -477,13 +474,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -491,13 +488,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -505,13 +502,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -519,13 +516,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -533,13 +530,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -547,13 +544,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -561,13 +558,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -575,13 +572,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -589,13 +586,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -603,13 +600,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -617,13 +614,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -631,13 +628,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>

--- a/src/data/dataFile/xlsx/test.xlsx
+++ b/src/data/dataFile/xlsx/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>English</t>
   </si>
@@ -144,12 +144,6 @@
   </si>
   <si>
     <t>bà </t>
-  </si>
-  <si>
-    <t>ancestor</t>
-  </si>
-  <si>
-    <t>tổ tiên</t>
   </si>
   <si>
     <t>provincial route</t>
@@ -626,20 +620,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/data/dataFile/xlsx/test.xlsx
+++ b/src/data/dataFile/xlsx/test.xlsx
@@ -460,7 +460,7 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
